--- a/medicine/Mort/Tombe_de_Baden-Powell/Tombe_de_Baden-Powell.xlsx
+++ b/medicine/Mort/Tombe_de_Baden-Powell/Tombe_de_Baden-Powell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tombe de Baden-Powell est la sépulture du lieutenant général Robert Baden-Powell, fondateur du scoutisme, et de son épouse, Olave Baden-Powell, G.B.E.. Elle se trouve à Nyeri au Kenya, près du Mont Kenya. Baden-Powell est mort le 8 janvier 1941 et est inhumé dans le cimetière St. Peter's, dans le parc naturel de Wajee[1].
-Sa pierre tombale porte un cercle avec un point au centre, un symbole qui, placé sur un chemin, signifie « fin de piste » ou « je suis rentré à la maison »[2]. Quand son épouse, Lady Baden-Powell, est décédée, ses cendres ont été envoyées au Kenya et inhumées à côté de son mari. Le Kenya a déclaré la tombe de Baden-Powell monument national[3],[4].
-Pendant plusieurs décennies, la tombe et le cimetière ne sont pas entretenus. Un Américain, Walter Dean, adopte la tombe dans les années 1980 et se consacre à la rénovation du cimetière. Un petit édifice blanc adjacent à la tombe fait office de musée qui expose les foulards et patchs des scouts venus rendre hommage sur la tombe[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tombe de Baden-Powell est la sépulture du lieutenant général Robert Baden-Powell, fondateur du scoutisme, et de son épouse, Olave Baden-Powell, G.B.E.. Elle se trouve à Nyeri au Kenya, près du Mont Kenya. Baden-Powell est mort le 8 janvier 1941 et est inhumé dans le cimetière St. Peter's, dans le parc naturel de Wajee.
+Sa pierre tombale porte un cercle avec un point au centre, un symbole qui, placé sur un chemin, signifie « fin de piste » ou « je suis rentré à la maison ». Quand son épouse, Lady Baden-Powell, est décédée, ses cendres ont été envoyées au Kenya et inhumées à côté de son mari. Le Kenya a déclaré la tombe de Baden-Powell monument national,.
+Pendant plusieurs décennies, la tombe et le cimetière ne sont pas entretenus. Un Américain, Walter Dean, adopte la tombe dans les années 1980 et se consacre à la rénovation du cimetière. Un petit édifice blanc adjacent à la tombe fait office de musée qui expose les foulards et patchs des scouts venus rendre hommage sur la tombe.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Choix du lieu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Baden-Powell a choisi le Kenya comme dernier domicile en raison de la situation politique en Europe[6]. Il repose la tête orientée vers le Mont Kenya[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baden-Powell a choisi le Kenya comme dernier domicile en raison de la situation politique en Europe. Il repose la tête orientée vers le Mont Kenya.
 </t>
         </is>
       </c>
